--- a/Chapter08/Chapter 8 - Custom Views.xlsx
+++ b/Chapter08/Chapter 8 - Custom Views.xlsx
@@ -1,38 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25522"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Packt\Chapter 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7350C016-B8A0-4D86-861B-D941D6AF108A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D52BD45C-B2C5-4A5D-B4EC-5D92810DF7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{AC2536C7-CDBA-4B4F-8F0D-95A4C09342CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{05915AB1-0E9F-4B90-8048-45D1CEF2FBA0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="3" r:id="rId1"/>
-    <sheet name="January" sheetId="4" r:id="rId2"/>
-    <sheet name="February" sheetId="5" r:id="rId3"/>
-    <sheet name="March" sheetId="6" r:id="rId4"/>
-    <sheet name="Quarter1" sheetId="7" r:id="rId5"/>
-    <sheet name="April" sheetId="8" r:id="rId6"/>
-    <sheet name="May" sheetId="9" r:id="rId7"/>
-    <sheet name="June" sheetId="10" r:id="rId8"/>
-    <sheet name="Quarter2" sheetId="11" r:id="rId9"/>
-    <sheet name="July" sheetId="12" r:id="rId10"/>
-    <sheet name="August" sheetId="13" r:id="rId11"/>
-    <sheet name="September" sheetId="14" r:id="rId12"/>
-    <sheet name="Quarter3" sheetId="15" r:id="rId13"/>
-    <sheet name="October" sheetId="16" r:id="rId14"/>
-    <sheet name="November" sheetId="17" r:id="rId15"/>
-    <sheet name="December" sheetId="18" r:id="rId16"/>
-    <sheet name="Quarter4" sheetId="19" r:id="rId17"/>
-    <sheet name="Filtering" sheetId="1" r:id="rId18"/>
-    <sheet name="Loan Calculator" sheetId="20" r:id="rId19"/>
-    <sheet name="Table Feature" sheetId="2" r:id="rId20"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="January" sheetId="2" r:id="rId2"/>
+    <sheet name="February" sheetId="3" r:id="rId3"/>
+    <sheet name="March" sheetId="4" r:id="rId4"/>
+    <sheet name="Quarter1" sheetId="5" r:id="rId5"/>
+    <sheet name="April" sheetId="6" r:id="rId6"/>
+    <sheet name="May" sheetId="7" r:id="rId7"/>
+    <sheet name="June" sheetId="8" r:id="rId8"/>
+    <sheet name="Quarter2" sheetId="9" r:id="rId9"/>
+    <sheet name="July" sheetId="10" r:id="rId10"/>
+    <sheet name="August" sheetId="11" r:id="rId11"/>
+    <sheet name="September" sheetId="12" r:id="rId12"/>
+    <sheet name="Quarter3" sheetId="13" r:id="rId13"/>
+    <sheet name="October" sheetId="14" r:id="rId14"/>
+    <sheet name="November" sheetId="15" r:id="rId15"/>
+    <sheet name="December" sheetId="16" r:id="rId16"/>
+    <sheet name="Quarter4" sheetId="17" r:id="rId17"/>
+    <sheet name="Filtering" sheetId="18" r:id="rId18"/>
+    <sheet name="Loan Calculator" sheetId="19" r:id="rId19"/>
+    <sheet name="Table Feature" sheetId="20" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">Filtering!$B$2:$F$12</definedName>
@@ -50,7 +50,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -60,6 +59,108 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="61">
   <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>Quarter 1</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Quarter 2</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Quarter 3</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Quarter 4</t>
+  </si>
+  <si>
+    <t>Entire Year</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Product Sales</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Total Revenue</t>
+  </si>
+  <si>
+    <t>Cost of Goods Sold</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Wages</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilities </t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Total Expenses</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
     <t>World's Longest Beaches - Filtering</t>
   </si>
   <si>
@@ -126,134 +227,31 @@
     <t>Virginia Beach</t>
   </si>
   <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>Quarter 1</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>Quarter 2</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>Quarter 3</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>December</t>
-  </si>
-  <si>
-    <t>Quarter 4</t>
-  </si>
-  <si>
-    <t>Entire Year</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>Product Sales</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Total Revenue</t>
-  </si>
-  <si>
-    <t>Cost of Goods Sold</t>
-  </si>
-  <si>
-    <t>Gross Profit</t>
-  </si>
-  <si>
-    <t>Operating Expenses</t>
-  </si>
-  <si>
-    <t>Wages</t>
-  </si>
-  <si>
-    <t>Rent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilities </t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>Depreciation</t>
-  </si>
-  <si>
-    <t>Total Expenses</t>
-  </si>
-  <si>
-    <t>Net Income</t>
-  </si>
-  <si>
-    <t>Sales</t>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Total Interest</t>
   </si>
   <si>
     <t>Year 2 Principal</t>
-  </si>
-  <si>
-    <t>Total Interest</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
-    <t>Principal</t>
-  </si>
-  <si>
-    <t>Term</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,37 +260,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -356,6 +323,23 @@
       <scheme val="major"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -397,55 +381,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -462,6 +397,24 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -533,104 +486,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="8" fontId="13" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="8" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="5" xr:uid="{8B35A606-0E99-4DF1-AE8F-2735D7AC296D}"/>
-    <cellStyle name="Currency 2" xfId="6" xr:uid="{AD5F0ADD-85E7-43FC-A852-8557924896F4}"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{F1C9B8C2-9F05-4552-8749-2D77248C22B6}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{0175D68C-2B50-422D-876C-FD37DE59D5B0}"/>
-    <cellStyle name="Normal 4" xfId="7" xr:uid="{6759F340-571D-4652-9508-0EC0D29F1300}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{E755B103-23A0-4A74-9D51-4DE0B1ADEF7E}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{3A086373-9246-41CA-A36D-2D04983A2634}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -941,8 +919,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4EAA4B-EDDC-4C00-AA2F-704B8EF23038}">
-  <sheetPr codeName="Sheet1">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA357990-D971-4B9F-96DF-2E7909CD8002}">
+  <sheetPr>
     <tabColor rgb="FF7030A0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
@@ -950,8 +928,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -964,1093 +942,1093 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
     </row>
     <row r="2" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>39</v>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="17"/>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="7"/>
     </row>
     <row r="4" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="9">
         <f>January!$C3</f>
         <v>84354</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="9">
         <f>February!$C3</f>
         <v>145865</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="9">
         <f>March!$C3</f>
         <v>32545</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="9">
         <f t="shared" ref="F4:F9" si="0">SUM(C4:E4)</f>
         <v>262764</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="9">
         <f>April!$C3</f>
         <v>27562</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="9">
         <f>May!$C3</f>
         <v>18021</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="9">
         <f>June!$C3</f>
         <v>63509</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="9">
         <f t="shared" ref="J4:J9" si="1">SUM(G4:I4)</f>
         <v>109092</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="9">
         <f>July!$C3</f>
         <v>15222</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="9">
         <f>August!$C3</f>
         <v>68457</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="9">
         <f>September!$C3</f>
         <v>78657</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="9">
         <f t="shared" ref="N4:N9" si="2">SUM(K4:M4)</f>
         <v>162336</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="9">
         <f>October!$C3</f>
         <v>78465</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="9">
         <f>November!$C3</f>
         <v>65875</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="9">
         <f>December!$C3</f>
         <v>68795</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="9">
         <f t="shared" ref="R4:R9" si="3">SUM(O4:Q4)</f>
         <v>213135</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4" s="10">
         <f>SUM(C4:Q4)</f>
         <v>1281519</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="19">
+      <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="9">
         <f>January!$C4</f>
         <v>15896</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="9">
         <f>February!$C4</f>
         <v>25432</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="9">
         <f>March!$C4</f>
         <v>42555</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="9">
         <f t="shared" si="0"/>
         <v>83883</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="9">
         <f>April!$C4</f>
         <v>45222</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="9">
         <f>May!$C4</f>
         <v>27433</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="9">
         <f>June!$C4</f>
         <v>60262</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="9">
         <f t="shared" si="1"/>
         <v>132917</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="9">
         <f>July!$C4</f>
         <v>63224</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="9">
         <f>August!$C4</f>
         <v>35684</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="9">
         <f>September!$C4</f>
         <v>42511</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="9">
         <f t="shared" si="2"/>
         <v>141419</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="9">
         <f>October!$C4</f>
         <v>23524</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="9">
         <f>November!$C4</f>
         <v>63524</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="9">
         <f>December!$C4</f>
         <v>45652</v>
       </c>
-      <c r="R5" s="19">
+      <c r="R5" s="9">
         <f t="shared" si="3"/>
         <v>132700</v>
       </c>
-      <c r="S5" s="20">
+      <c r="S5" s="10">
         <f t="shared" ref="S5:S17" si="4">SUM(C5:Q5)</f>
         <v>849138</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="19">
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9">
         <f>January!$C5</f>
         <v>1573</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="9">
         <f>February!$C5</f>
         <v>2154</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="9">
         <f>March!$C5</f>
         <v>2165</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="9">
         <f t="shared" si="0"/>
         <v>5892</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="9">
         <f>April!$C5</f>
         <v>2375</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="9">
         <f>May!$C5</f>
         <v>2345</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="9">
         <f>June!$C5</f>
         <v>1355</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="9">
         <f t="shared" si="1"/>
         <v>6075</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="9">
         <f>July!$C5</f>
         <v>1543</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="9">
         <f>August!$C5</f>
         <v>3541</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="9">
         <f>September!$C5</f>
         <v>1986</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="9">
         <f t="shared" si="2"/>
         <v>7070</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="9">
         <f>October!$C5</f>
         <v>6521</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="9">
         <f>November!$C5</f>
         <v>2457</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="9">
         <f>December!$C5</f>
         <v>5246</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="9">
         <f t="shared" si="3"/>
         <v>14224</v>
       </c>
-      <c r="S6" s="20">
+      <c r="S6" s="10">
         <f t="shared" si="4"/>
         <v>52298</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="22">
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="11">
         <f>SUM(C4:C6)</f>
         <v>101823</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="11">
         <f t="shared" ref="D7:Q7" si="5">SUM(D4:D6)</f>
         <v>173451</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="11">
         <f t="shared" si="5"/>
         <v>77265</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="11">
         <f t="shared" si="0"/>
         <v>352539</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="11">
         <f t="shared" si="5"/>
         <v>75159</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="11">
         <f t="shared" si="5"/>
         <v>47799</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="11">
         <f t="shared" si="5"/>
         <v>125126</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="11">
         <f t="shared" si="1"/>
         <v>248084</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="11">
         <f t="shared" si="5"/>
         <v>79989</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="11">
         <f t="shared" si="5"/>
         <v>107682</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="11">
         <f t="shared" si="5"/>
         <v>123154</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="11">
         <f t="shared" si="2"/>
         <v>310825</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7" s="11">
         <f t="shared" si="5"/>
         <v>108510</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="11">
         <f t="shared" si="5"/>
         <v>131856</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="11">
         <f t="shared" si="5"/>
         <v>119693</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="11">
         <f t="shared" si="3"/>
         <v>360059</v>
       </c>
-      <c r="S7" s="23">
+      <c r="S7" s="12">
         <f t="shared" si="4"/>
         <v>2182955</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="24">
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="13">
         <f>January!$C7</f>
         <v>12765</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="13">
         <f>February!$C7</f>
         <v>14526</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="13">
         <f>March!$C7</f>
         <v>36554</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
         <v>63845</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="13">
         <f>April!$C7</f>
         <v>14358</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="13">
         <f>May!$C7</f>
         <v>35224</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="13">
         <f>June!$C7</f>
         <v>24866</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="13">
         <f t="shared" si="1"/>
         <v>74448</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="13">
         <f>July!$C7</f>
         <v>24689</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="13">
         <f>August!$C7</f>
         <v>21856</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="13">
         <f>September!$C7</f>
         <v>5684</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="13">
         <f t="shared" si="2"/>
         <v>52229</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="13">
         <f>October!$C7</f>
         <v>35415</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="13">
         <f>November!$C7</f>
         <v>42516</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="13">
         <f>December!$C7</f>
         <v>3589</v>
       </c>
-      <c r="R8" s="24">
+      <c r="R8" s="13">
         <f t="shared" si="3"/>
         <v>81520</v>
       </c>
-      <c r="S8" s="25">
+      <c r="S8" s="14">
         <f t="shared" si="4"/>
         <v>462564</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="26">
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="15">
         <f>C7-C8</f>
         <v>89058</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="15">
         <f t="shared" ref="D9:Q9" si="6">D7-D8</f>
         <v>158925</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="15">
         <f t="shared" si="6"/>
         <v>40711</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="15">
         <f t="shared" si="0"/>
         <v>288694</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="15">
         <f t="shared" si="6"/>
         <v>60801</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="15">
         <f t="shared" si="6"/>
         <v>12575</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="15">
         <f t="shared" si="6"/>
         <v>100260</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="15">
         <f t="shared" si="1"/>
         <v>173636</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="15">
         <f t="shared" si="6"/>
         <v>55300</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="15">
         <f t="shared" si="6"/>
         <v>85826</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9" s="15">
         <f t="shared" si="6"/>
         <v>117470</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="15">
         <f t="shared" si="2"/>
         <v>258596</v>
       </c>
-      <c r="O9" s="26">
+      <c r="O9" s="15">
         <f t="shared" si="6"/>
         <v>73095</v>
       </c>
-      <c r="P9" s="26">
+      <c r="P9" s="15">
         <f t="shared" si="6"/>
         <v>89340</v>
       </c>
-      <c r="Q9" s="26">
+      <c r="Q9" s="15">
         <f t="shared" si="6"/>
         <v>116104</v>
       </c>
-      <c r="R9" s="26">
+      <c r="R9" s="15">
         <f t="shared" si="3"/>
         <v>278539</v>
       </c>
-      <c r="S9" s="27">
+      <c r="S9" s="16">
         <f t="shared" si="4"/>
         <v>1720391</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="28"/>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="17"/>
     </row>
     <row r="11" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="29">
+      <c r="B11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="18">
         <f>January!$C10</f>
         <v>34750</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="18">
         <f>February!$C10</f>
         <v>34750</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="18">
         <f>March!$C10</f>
         <v>34750</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="18">
         <f t="shared" ref="F11:F17" si="7">SUM(C11:E11)</f>
         <v>104250</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="18">
         <f>April!$C10</f>
         <v>34750</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="18">
         <f>May!$C10</f>
         <v>34750</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="18">
         <f>June!$C10</f>
         <v>34750</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="18">
         <f t="shared" ref="J11:J17" si="8">SUM(G11:I11)</f>
         <v>104250</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="18">
         <f>July!$C10</f>
         <v>34750</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="18">
         <f>August!$C10</f>
         <v>34750</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="18">
         <f>September!$C10</f>
         <v>34750</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="18">
         <f t="shared" ref="N11:N17" si="9">SUM(K11:M11)</f>
         <v>104250</v>
       </c>
-      <c r="O11" s="29">
+      <c r="O11" s="18">
         <f>October!$C10</f>
         <v>34750</v>
       </c>
-      <c r="P11" s="29">
+      <c r="P11" s="18">
         <f>November!$C10</f>
         <v>34750</v>
       </c>
-      <c r="Q11" s="29">
+      <c r="Q11" s="18">
         <f>December!$C10</f>
         <v>34750</v>
       </c>
-      <c r="R11" s="29">
+      <c r="R11" s="18">
         <f t="shared" ref="R11:R17" si="10">SUM(O11:Q11)</f>
         <v>104250</v>
       </c>
-      <c r="S11" s="30">
+      <c r="S11" s="19">
         <f t="shared" si="4"/>
         <v>729750</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="29">
+      <c r="B12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="18">
         <f>January!$C11</f>
         <v>2500</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="18">
         <f>February!$C11</f>
         <v>2500</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="18">
         <f>March!$C11</f>
         <v>2500</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="18">
         <f t="shared" si="7"/>
         <v>7500</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="18">
         <f>April!$C11</f>
         <v>2500</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="18">
         <f>May!$C11</f>
         <v>2500</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="18">
         <f>June!$C11</f>
         <v>2500</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="18">
         <f t="shared" si="8"/>
         <v>7500</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="18">
         <f>July!$C11</f>
         <v>2500</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="18">
         <f>August!$C11</f>
         <v>2500</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="18">
         <f>September!$C11</f>
         <v>2500</v>
       </c>
-      <c r="N12" s="29">
+      <c r="N12" s="18">
         <f t="shared" si="9"/>
         <v>7500</v>
       </c>
-      <c r="O12" s="29">
+      <c r="O12" s="18">
         <f>October!$C11</f>
         <v>2500</v>
       </c>
-      <c r="P12" s="29">
+      <c r="P12" s="18">
         <f>November!$C11</f>
         <v>2500</v>
       </c>
-      <c r="Q12" s="29">
+      <c r="Q12" s="18">
         <f>December!$C11</f>
         <v>2500</v>
       </c>
-      <c r="R12" s="29">
+      <c r="R12" s="18">
         <f t="shared" si="10"/>
         <v>7500</v>
       </c>
-      <c r="S12" s="30">
+      <c r="S12" s="19">
         <f t="shared" si="4"/>
         <v>52500</v>
       </c>
     </row>
     <row r="13" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="29">
+      <c r="B13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="18">
         <f>January!$C12</f>
         <v>378</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="18">
         <f>February!$C12</f>
         <v>478</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="18">
         <f>March!$C12</f>
         <v>478</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="18">
         <f t="shared" si="7"/>
         <v>1334</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="18">
         <f>April!$C12</f>
         <v>478</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="18">
         <f>May!$C12</f>
         <v>478</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="18">
         <f>June!$C12</f>
         <v>478</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="18">
         <f t="shared" si="8"/>
         <v>1434</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="18">
         <f>July!$C12</f>
         <v>478</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="18">
         <f>August!$C12</f>
         <v>478</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="18">
         <f>September!$C12</f>
         <v>478</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="18">
         <f t="shared" si="9"/>
         <v>1434</v>
       </c>
-      <c r="O13" s="29">
+      <c r="O13" s="18">
         <f>October!$C12</f>
         <v>478</v>
       </c>
-      <c r="P13" s="29">
+      <c r="P13" s="18">
         <f>November!$C12</f>
         <v>478</v>
       </c>
-      <c r="Q13" s="29">
+      <c r="Q13" s="18">
         <f>December!$C12</f>
         <v>478</v>
       </c>
-      <c r="R13" s="29">
+      <c r="R13" s="18">
         <f t="shared" si="10"/>
         <v>1434</v>
       </c>
-      <c r="S13" s="30">
+      <c r="S13" s="19">
         <f t="shared" si="4"/>
         <v>9838</v>
       </c>
     </row>
     <row r="14" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="29">
+      <c r="B14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="18">
         <f>January!$C13</f>
         <v>415</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="18">
         <f>February!$C13</f>
         <v>415</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="18">
         <f>March!$C13</f>
         <v>415</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="18">
         <f t="shared" si="7"/>
         <v>1245</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="18">
         <f>April!$C13</f>
         <v>415</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="18">
         <f>May!$C13</f>
         <v>415</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="18">
         <f>June!$C13</f>
         <v>415</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="18">
         <f t="shared" si="8"/>
         <v>1245</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="18">
         <f>July!$C13</f>
         <v>415</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="18">
         <f>August!$C13</f>
         <v>415</v>
       </c>
-      <c r="M14" s="29">
+      <c r="M14" s="18">
         <f>September!$C13</f>
         <v>415</v>
       </c>
-      <c r="N14" s="29">
+      <c r="N14" s="18">
         <f t="shared" si="9"/>
         <v>1245</v>
       </c>
-      <c r="O14" s="29">
+      <c r="O14" s="18">
         <f>October!$C13</f>
         <v>415</v>
       </c>
-      <c r="P14" s="29">
+      <c r="P14" s="18">
         <f>November!$C13</f>
         <v>415</v>
       </c>
-      <c r="Q14" s="29">
+      <c r="Q14" s="18">
         <f>December!$C13</f>
         <v>415</v>
       </c>
-      <c r="R14" s="29">
+      <c r="R14" s="18">
         <f t="shared" si="10"/>
         <v>1245</v>
       </c>
-      <c r="S14" s="30">
+      <c r="S14" s="19">
         <f t="shared" si="4"/>
         <v>8715</v>
       </c>
     </row>
     <row r="15" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="29">
+      <c r="B15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="18">
         <f>January!$C14</f>
         <v>525</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="18">
         <f>February!$C14</f>
         <v>525</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="18">
         <f>March!$C14</f>
         <v>525</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="18">
         <f t="shared" si="7"/>
         <v>1575</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="18">
         <f>April!$C14</f>
         <v>525</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="18">
         <f>May!$C14</f>
         <v>525</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="18">
         <f>June!$C14</f>
         <v>525</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="18">
         <f t="shared" si="8"/>
         <v>1575</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="18">
         <f>July!$C14</f>
         <v>525</v>
       </c>
-      <c r="L15" s="29">
+      <c r="L15" s="18">
         <f>August!$C14</f>
         <v>525</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="18">
         <f>September!$C14</f>
         <v>525</v>
       </c>
-      <c r="N15" s="29">
+      <c r="N15" s="18">
         <f t="shared" si="9"/>
         <v>1575</v>
       </c>
-      <c r="O15" s="29">
+      <c r="O15" s="18">
         <f>October!$C14</f>
         <v>525</v>
       </c>
-      <c r="P15" s="29">
+      <c r="P15" s="18">
         <f>November!$C14</f>
         <v>525</v>
       </c>
-      <c r="Q15" s="29">
+      <c r="Q15" s="18">
         <f>December!$C14</f>
         <v>525</v>
       </c>
-      <c r="R15" s="29">
+      <c r="R15" s="18">
         <f t="shared" si="10"/>
         <v>1575</v>
       </c>
-      <c r="S15" s="30">
+      <c r="S15" s="19">
         <f t="shared" si="4"/>
         <v>11025</v>
       </c>
     </row>
     <row r="16" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="22">
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="11">
         <f>SUM(C11:C15)</f>
         <v>38568</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="11">
         <f t="shared" ref="D16:Q16" si="11">SUM(D11:D15)</f>
         <v>38668</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="11">
         <f t="shared" si="11"/>
         <v>38668</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="11">
         <f t="shared" si="7"/>
         <v>115904</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="11">
         <f t="shared" si="11"/>
         <v>38668</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="11">
         <f t="shared" si="11"/>
         <v>38668</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="11">
         <f t="shared" si="11"/>
         <v>38668</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="11">
         <f t="shared" si="8"/>
         <v>116004</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="11">
         <f t="shared" si="11"/>
         <v>38668</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="11">
         <f t="shared" si="11"/>
         <v>38668</v>
       </c>
-      <c r="M16" s="22">
+      <c r="M16" s="11">
         <f t="shared" si="11"/>
         <v>38668</v>
       </c>
-      <c r="N16" s="22">
+      <c r="N16" s="11">
         <f t="shared" si="9"/>
         <v>116004</v>
       </c>
-      <c r="O16" s="22">
+      <c r="O16" s="11">
         <f t="shared" si="11"/>
         <v>38668</v>
       </c>
-      <c r="P16" s="22">
+      <c r="P16" s="11">
         <f t="shared" si="11"/>
         <v>38668</v>
       </c>
-      <c r="Q16" s="22">
+      <c r="Q16" s="11">
         <f t="shared" si="11"/>
         <v>38668</v>
       </c>
-      <c r="R16" s="22">
+      <c r="R16" s="11">
         <f t="shared" si="10"/>
         <v>116004</v>
       </c>
-      <c r="S16" s="23">
+      <c r="S16" s="12">
         <f t="shared" si="4"/>
         <v>811828</v>
       </c>
     </row>
     <row r="17" spans="2:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="31">
+      <c r="B17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="20">
         <f>C9-C16</f>
         <v>50490</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="20">
         <f t="shared" ref="D17:Q17" si="12">D9-D16</f>
         <v>120257</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="20">
         <f t="shared" si="12"/>
         <v>2043</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="20">
         <f t="shared" si="7"/>
         <v>172790</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="20">
         <f t="shared" si="12"/>
         <v>22133</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="20">
         <f t="shared" si="12"/>
         <v>-26093</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="20">
         <f t="shared" si="12"/>
         <v>61592</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17" s="20">
         <f t="shared" si="8"/>
         <v>57632</v>
       </c>
-      <c r="K17" s="31">
+      <c r="K17" s="20">
         <f t="shared" si="12"/>
         <v>16632</v>
       </c>
-      <c r="L17" s="31">
+      <c r="L17" s="20">
         <f t="shared" si="12"/>
         <v>47158</v>
       </c>
-      <c r="M17" s="31">
+      <c r="M17" s="20">
         <f t="shared" si="12"/>
         <v>78802</v>
       </c>
-      <c r="N17" s="31">
+      <c r="N17" s="20">
         <f t="shared" si="9"/>
         <v>142592</v>
       </c>
-      <c r="O17" s="31">
+      <c r="O17" s="20">
         <f t="shared" si="12"/>
         <v>34427</v>
       </c>
-      <c r="P17" s="31">
+      <c r="P17" s="20">
         <f t="shared" si="12"/>
         <v>50672</v>
       </c>
-      <c r="Q17" s="31">
+      <c r="Q17" s="20">
         <f t="shared" si="12"/>
         <v>77436</v>
       </c>
-      <c r="R17" s="31">
+      <c r="R17" s="20">
         <f t="shared" si="10"/>
         <v>162535</v>
       </c>
-      <c r="S17" s="32">
+      <c r="S17" s="21">
         <f t="shared" si="4"/>
         <v>908563</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="35"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2062,15 +2040,13 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CCC5F4-463D-4F18-8F22-253053F69D1D}">
-  <sheetPr codeName="Sheet10">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E907FFF-9131-4E38-9F3E-F9333669EF45}">
+  <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="B1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2080,135 +2056,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="str">
+      <c r="B1" s="27" t="e">
         <f ca="1">MID(CELL("filename",B1),FIND("]",CELL("filename",B1))+1,50)</f>
-        <v>July</v>
-      </c>
-      <c r="C1" s="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="38"/>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="28">
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="17">
         <v>15222</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="28">
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="17">
         <v>63224</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="28">
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="17">
         <v>1543</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="12">
         <f>SUM(C3:C5)</f>
         <v>79989</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="23">
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="12">
         <v>24689</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="16">
         <f>C6-C7</f>
         <v>55300</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="28"/>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="28">
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="17">
         <v>34750</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="28">
+      <c r="B11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="17">
         <v>2500</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="28">
+      <c r="B12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="17">
         <v>478</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="28">
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="17">
         <v>415</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="28">
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="17">
         <v>525</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="12">
         <f>SUM(C10:C14)</f>
         <v>38668</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="32">
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="21">
         <f>C8-C15</f>
         <v>16632</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2219,15 +2195,13 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B680248-8045-440F-9EC3-184980B41C11}">
-  <sheetPr codeName="Sheet11">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73CC5C7-940E-4DBA-971D-547BCDEE82F9}">
+  <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="B1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2237,135 +2211,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="str">
+      <c r="B1" s="27" t="e">
         <f ca="1">MID(CELL("filename",B1),FIND("]",CELL("filename",B1))+1,50)</f>
-        <v>August</v>
-      </c>
-      <c r="C1" s="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="38"/>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="28">
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="17">
         <v>68457</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="28">
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="17">
         <v>35684</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="28">
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="17">
         <v>3541</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="12">
         <f>SUM(C3:C5)</f>
         <v>107682</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="23">
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="12">
         <v>21856</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="16">
         <f>C6-C7</f>
         <v>85826</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="28"/>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="28">
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="17">
         <v>34750</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="28">
+      <c r="B11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="17">
         <v>2500</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="28">
+      <c r="B12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="17">
         <v>478</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="28">
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="17">
         <v>415</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="28">
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="17">
         <v>525</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="12">
         <f>SUM(C10:C14)</f>
         <v>38668</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="32">
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="21">
         <f>C8-C15</f>
         <v>47158</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2376,15 +2350,13 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC3D8A9-08FA-4E8F-BF16-BD03F1CBE076}">
-  <sheetPr codeName="Sheet12">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E904BF5E-3893-45D8-8AFE-1E01E51C0629}">
+  <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="B1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2394,135 +2366,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="str">
+      <c r="B1" s="27" t="e">
         <f ca="1">MID(CELL("filename",B1),FIND("]",CELL("filename",B1))+1,50)</f>
-        <v>September</v>
-      </c>
-      <c r="C1" s="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="38"/>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="28">
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="17">
         <v>78657</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="28">
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="17">
         <v>42511</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="28">
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="17">
         <v>1986</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="12">
         <f>SUM(C3:C5)</f>
         <v>123154</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="23">
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="12">
         <v>5684</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="16">
         <f>C6-C7</f>
         <v>117470</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="28"/>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="28">
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="17">
         <v>34750</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="28">
+      <c r="B11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="17">
         <v>2500</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="28">
+      <c r="B12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="17">
         <v>478</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="28">
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="17">
         <v>415</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="28">
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="17">
         <v>525</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="12">
         <f>SUM(C10:C14)</f>
         <v>38668</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="32">
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="21">
         <f>C8-C15</f>
         <v>78802</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2533,15 +2505,13 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AC7BFC-D82B-4C98-ABB0-77CC8AC214A7}">
-  <sheetPr codeName="Sheet13">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3966E7B-E1FD-4F0E-AD54-91A59CDB2567}">
+  <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="B1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2551,144 +2521,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="str">
+      <c r="B1" s="27" t="e">
         <f ca="1">MID(CELL("filename",B1),FIND("]",CELL("filename",B1))+1,50)</f>
-        <v>Quarter3</v>
-      </c>
-      <c r="C1" s="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="38"/>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="28">
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="17">
         <f>July!C3+August!C3+September!C3</f>
         <v>162336</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="28">
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="17">
         <f>July!C4+August!C4+September!C4</f>
         <v>141419</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="28">
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="17">
         <f>July!C5+August!C5+September!C5</f>
         <v>7070</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="12">
         <f>SUM(C3:C5)</f>
         <v>310825</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="28">
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="17">
         <f>July!C7+August!C7+September!C7</f>
         <v>52229</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="16">
         <f>C6-C7</f>
         <v>258596</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="28"/>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="28">
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="17">
         <f>July!C10+August!C10+September!C10</f>
         <v>104250</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="28">
+      <c r="B11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="17">
         <f>July!C11+August!C11+September!C11</f>
         <v>7500</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="28">
+      <c r="B12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="17">
         <f>July!C12+August!C12+September!C12</f>
         <v>1434</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="28">
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="17">
         <f>July!C13+August!C13+September!C13</f>
         <v>1245</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="28">
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="17">
         <f>July!C14+August!C14+September!C14</f>
         <v>1575</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="12">
         <f>SUM(C10:C14)</f>
         <v>116004</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="32">
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="21">
         <f>C8-C15</f>
         <v>142592</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2699,15 +2669,13 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18F3315-3B0F-41BF-8915-9E78CDAD5EC4}">
-  <sheetPr codeName="Sheet14">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3AAC08-CE8E-4EBB-8738-A7D10B6881FF}">
+  <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="B1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2717,135 +2685,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="str">
+      <c r="B1" s="27" t="e">
         <f ca="1">MID(CELL("filename",B1),FIND("]",CELL("filename",B1))+1,50)</f>
-        <v>October</v>
-      </c>
-      <c r="C1" s="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="38"/>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="28">
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="17">
         <v>78465</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="28">
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="17">
         <v>23524</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="28">
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="17">
         <v>6521</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="12">
         <f>SUM(C3:C5)</f>
         <v>108510</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="23">
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="12">
         <v>35415</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="16">
         <f>C6-C7</f>
         <v>73095</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="28"/>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="28">
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="17">
         <v>34750</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="28">
+      <c r="B11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="17">
         <v>2500</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="28">
+      <c r="B12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="17">
         <v>478</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="28">
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="17">
         <v>415</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="28">
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="17">
         <v>525</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="12">
         <f>SUM(C10:C14)</f>
         <v>38668</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="32">
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="21">
         <f>C8-C15</f>
         <v>34427</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2856,15 +2824,13 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A995CD16-FAD5-4D7A-BDAA-F1EE3B18B32D}">
-  <sheetPr codeName="Sheet15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA8687B-07F2-42EB-90F1-B0C08E198C16}">
+  <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="B1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2874,135 +2840,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="str">
+      <c r="B1" s="27" t="e">
         <f ca="1">MID(CELL("filename",B1),FIND("]",CELL("filename",B1))+1,50)</f>
-        <v>November</v>
-      </c>
-      <c r="C1" s="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="38"/>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="28">
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="17">
         <v>65875</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="28">
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="17">
         <v>63524</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="28">
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="17">
         <v>2457</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="12">
         <f>SUM(C3:C5)</f>
         <v>131856</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="23">
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="12">
         <v>42516</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="16">
         <f>C6-C7</f>
         <v>89340</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="28"/>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="28">
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="17">
         <v>34750</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="28">
+      <c r="B11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="17">
         <v>2500</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="28">
+      <c r="B12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="17">
         <v>478</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="28">
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="17">
         <v>415</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="28">
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="17">
         <v>525</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="12">
         <f>SUM(C10:C14)</f>
         <v>38668</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="32">
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="21">
         <f>C8-C15</f>
         <v>50672</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3013,15 +2979,13 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E66232F-2DF6-4D04-81D6-DB6FA1E05025}">
-  <sheetPr codeName="Sheet16">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CF8853-A3C3-4FED-B85B-171D79CD3119}">
+  <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="B1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3031,135 +2995,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="str">
+      <c r="B1" s="27" t="e">
         <f ca="1">MID(CELL("filename",B1),FIND("]",CELL("filename",B1))+1,50)</f>
-        <v>December</v>
-      </c>
-      <c r="C1" s="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="38"/>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="28">
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="17">
         <v>68795</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="28">
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="17">
         <v>45652</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="28">
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="17">
         <v>5246</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="12">
         <f>SUM(C3:C5)</f>
         <v>119693</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="23">
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="12">
         <v>3589</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="16">
         <f>C6-C7</f>
         <v>116104</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="28"/>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="28">
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="17">
         <v>34750</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="28">
+      <c r="B11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="17">
         <v>2500</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="28">
+      <c r="B12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="17">
         <v>478</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="28">
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="17">
         <v>415</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="28">
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="17">
         <v>525</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="12">
         <f>SUM(C10:C14)</f>
         <v>38668</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="32">
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="21">
         <f>C8-C15</f>
         <v>77436</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3170,15 +3134,13 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084D6064-AAEF-4DE2-84D3-2D12A36F5533}">
-  <sheetPr codeName="Sheet17">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E57EA7-1A7C-4930-B30C-AC183AECFD30}">
+  <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="B1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3188,144 +3150,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="str">
+      <c r="B1" s="27" t="e">
         <f ca="1">MID(CELL("filename",B1),FIND("]",CELL("filename",B1))+1,50)</f>
-        <v>Quarter4</v>
-      </c>
-      <c r="C1" s="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="38"/>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="28">
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="17">
         <f>October!C3+November!C3+December!C3</f>
         <v>213135</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="28">
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="17">
         <f>October!C4+November!C4+December!C4</f>
         <v>132700</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="28">
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="17">
         <f>October!C5+November!C5+December!C5</f>
         <v>14224</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="12">
         <f>SUM(C3:C5)</f>
         <v>360059</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="28">
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="17">
         <f>October!C7+November!C7+December!C7</f>
         <v>81520</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="16">
         <f>C6-C7</f>
         <v>278539</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="28"/>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="28">
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="17">
         <f>October!C10+November!C10+December!C10</f>
         <v>104250</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="28">
+      <c r="B11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="17">
         <f>October!C11+November!C11+December!C11</f>
         <v>7500</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="28">
+      <c r="B12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="17">
         <f>October!C12+November!C12+December!C12</f>
         <v>1434</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="28">
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="17">
         <f>October!C13+November!C13+December!C13</f>
         <v>1245</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="28">
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="17">
         <f>October!C14+November!C14+December!C14</f>
         <v>1575</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="12">
         <f>SUM(C10:C14)</f>
         <v>116004</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="39">
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="30">
         <f>C8-C15</f>
         <v>162535</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3336,8 +3298,8 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5390994-C437-4EFA-AA27-0260DB581F1D}">
-  <sheetPr codeName="Sheet18">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17AE87A-C5EA-46CE-87BF-F4856C8D2941}">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="B1:F13"/>
@@ -3346,197 +3308,197 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="2.375" style="32" customWidth="1"/>
+    <col min="2" max="2" width="28.875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="32" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="32" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="32" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>5</v>
+      <c r="B2" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="32">
         <v>75</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="32">
         <v>121</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B4" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="32">
         <v>28</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="32">
         <v>45</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="32">
         <v>25</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="32">
         <v>40</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="32">
         <v>94</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="32">
         <v>151</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="32">
         <v>55</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="32">
         <v>89</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="32">
         <v>70</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="32">
         <v>113</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="32">
         <v>56</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="32">
         <v>90</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="32">
         <v>150</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="32">
         <v>241</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="32">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2">
-        <v>20</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="E11" s="32">
         <v>32</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="B12" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="39">
         <v>35</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="39">
         <v>56</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" autoFilter="0"/>
@@ -3546,8 +3508,8 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFB76A1-37F1-466B-8B2C-499BDF4B5BE1}">
-  <sheetPr codeName="Sheet19">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08A48E0-6CB4-4C3E-9B0A-3023877C3D89}">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:B6"/>
@@ -3556,58 +3518,58 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="40" customWidth="1"/>
-    <col min="2" max="2" width="13" style="40" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="40"/>
+    <col min="1" max="1" width="14.25" style="42" customWidth="1"/>
+    <col min="2" max="2" width="13" style="42" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="44">
+      <c r="A1" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="43">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="43">
+      <c r="A2" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="44">
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="42">
+      <c r="A3" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="45">
         <v>350000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="46">
         <f>-PMT(B1/12,B2,B3)</f>
         <v>2459.3406912195901</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="41">
+      <c r="A5" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="46">
         <f>-CUMIPMT(B1/12,B2,B3,1,B2,0)</f>
         <v>92681.324419526209</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="41">
+      <c r="A6" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="46">
         <f>-CUMPRINC(B1,B2,B3,13,24,0)</f>
         <v>762.10782240723404</v>
       </c>
@@ -3619,15 +3581,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395AC316-F778-45F9-9689-C0FB5CD38128}">
-  <sheetPr codeName="Sheet2">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4650A208-1788-4C2E-B804-45D473678D33}">
+  <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="B1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3637,330 +3597,327 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="1" t="e">
         <f ca="1">MID(CELL("filename",B1),FIND("]",CELL("filename",B1))+1,50)</f>
-        <v>January</v>
-      </c>
-      <c r="C1" s="45"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="37"/>
+      <c r="B2" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="28">
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="17">
         <v>84354</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="28">
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="17">
         <v>15896</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="28">
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="17">
         <v>1573</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="12">
         <f>SUM(C3:C5)</f>
         <v>101823</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="23">
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="12">
         <v>12765</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="16">
         <f>C6-C7</f>
         <v>89058</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="28"/>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="28">
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="17">
         <v>34750</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="28">
+      <c r="B11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="17">
         <v>2500</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="28">
+      <c r="B12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="17">
         <v>378</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="28">
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="17">
         <v>415</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="28">
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="17">
         <v>525</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="12">
         <f>SUM(C10:C14)</f>
         <v>38568</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="32">
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="21">
         <f>C8-C15</f>
         <v>50490</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" location="Summary!A1" display="Revenue" xr:uid="{142BFB0A-954A-481A-99ED-E06CC435DA53}"/>
+    <hyperlink ref="B2" location="Summary!A1" display="Revenue" xr:uid="{F34C1F56-F845-4A03-A985-964D4858C8CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B0CDDA-AA80-46DA-B926-00EA13BD13F6}">
-  <sheetPr codeName="Sheet20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED96BCD6-CBAA-4111-805C-F95E31AA3418}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="28.875" style="32" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="32" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="32" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="32" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4"/>
+      <c r="A1" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="A2" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="32">
         <v>75</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="32">
         <v>121</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="A3" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="32">
         <v>28</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="32">
         <v>45</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="A4" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="32">
         <v>25</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="32">
         <v>40</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="A5" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="32">
         <v>94</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="32">
         <v>151</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="A6" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="32">
         <v>55</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="32">
         <v>89</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="A7" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="32">
         <v>70</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="32">
         <v>113</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="47"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="A8" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="32">
         <v>56</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="32">
         <v>90</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="47"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="A9" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="32">
         <v>150</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="32">
         <v>241</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="32">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="D10" s="32">
         <v>32</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="A11" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="32">
         <v>35</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="32">
         <v>56</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3968,15 +3925,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB96B5AD-0B92-4674-9360-73F29EA8883E}">
-  <sheetPr codeName="Sheet3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A95142C-9FCE-4575-B517-51519B80424E}">
+  <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="B1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3986,135 +3941,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="str">
+      <c r="B1" s="27" t="e">
         <f ca="1">MID(CELL("filename",B1),FIND("]",CELL("filename",B1))+1,50)</f>
-        <v>February</v>
-      </c>
-      <c r="C1" s="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="38"/>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="28">
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="17">
         <v>145865</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="28">
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="17">
         <v>25432</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="28">
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="17">
         <v>2154</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="12">
         <f>SUM(C3:C5)</f>
         <v>173451</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="23">
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="12">
         <v>14526</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="16">
         <f>C6-C7</f>
         <v>158925</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="28"/>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="28">
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="17">
         <v>34750</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="28">
+      <c r="B11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="17">
         <v>2500</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="28">
+      <c r="B12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="17">
         <v>478</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="28">
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="17">
         <v>415</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="28">
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="17">
         <v>525</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="12">
         <f>SUM(C10:C14)</f>
         <v>38668</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="32">
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="21">
         <f>C8-C15</f>
         <v>120257</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4125,15 +4080,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BF82EF-32FE-4D89-84CE-D6B6AFB8EFE8}">
-  <sheetPr codeName="Sheet4">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FC496-605E-466A-873B-3A30631DD0F6}">
+  <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="B1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4143,135 +4096,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="str">
+      <c r="B1" s="27" t="e">
         <f ca="1">MID(CELL("filename",B1),FIND("]",CELL("filename",B1))+1,50)</f>
-        <v>March</v>
-      </c>
-      <c r="C1" s="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="38"/>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="28">
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="17">
         <v>32545</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="28">
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="17">
         <v>42555</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="28">
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="17">
         <v>2165</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="12">
         <f>SUM(C3:C5)</f>
         <v>77265</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="23">
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="12">
         <v>36554</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="16">
         <f>C6-C7</f>
         <v>40711</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="28"/>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="28">
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="17">
         <v>34750</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="28">
+      <c r="B11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="17">
         <v>2500</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="28">
+      <c r="B12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="17">
         <v>478</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="28">
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="17">
         <v>415</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="28">
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="17">
         <v>525</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="12">
         <f>SUM(C10:C14)</f>
         <v>38668</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="32">
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="21">
         <f>C8-C15</f>
         <v>2043</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4282,15 +4235,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF61B0A-1969-4AC4-8450-D0DE01A0EE8E}">
-  <sheetPr codeName="Sheet5">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FD824D-974B-49F2-96B2-D50E90883335}">
+  <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="B1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4300,144 +4251,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="str">
+      <c r="B1" s="27" t="e">
         <f ca="1">MID(CELL("filename",B1),FIND("]",CELL("filename",B1))+1,50)</f>
-        <v>Quarter1</v>
-      </c>
-      <c r="C1" s="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="38"/>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="28">
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="17">
         <f>January!C3+February!C3+March!C3</f>
         <v>262764</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="28">
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="17">
         <f>January!C4+February!C4+March!C4</f>
         <v>83883</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="28">
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="17">
         <f>January!C5+February!C5+March!C5</f>
         <v>5892</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="12">
         <f>SUM(C3:C5)</f>
         <v>352539</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="28">
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="17">
         <f>January!C7+February!C7+March!C7</f>
         <v>63845</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="16">
         <f>C6-C7</f>
         <v>288694</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="28"/>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="28">
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="17">
         <f>January!C10+February!C10+March!C10</f>
         <v>104250</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="28">
+      <c r="B11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="17">
         <f>January!C11+February!C11+March!C11</f>
         <v>7500</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="28">
+      <c r="B12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="17">
         <f>January!C12+February!C12+March!C12</f>
         <v>1334</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="28">
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="17">
         <f>January!C13+February!C13+March!C13</f>
         <v>1245</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="28">
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="17">
         <f>January!C14+February!C14+March!C14</f>
         <v>1575</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="12">
         <f>SUM(C10:C14)</f>
         <v>115904</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="32">
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="21">
         <f>C8-C15</f>
         <v>172790</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4448,15 +4399,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7113F4-4015-49A6-BAF3-CB1FAFCFE51F}">
-  <sheetPr codeName="Sheet6">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4423BFBF-7C7E-4DFE-80A2-79E349EEBD75}">
+  <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="B1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4466,135 +4415,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="str">
+      <c r="B1" s="27" t="e">
         <f ca="1">MID(CELL("filename",B1),FIND("]",CELL("filename",B1))+1,50)</f>
-        <v>April</v>
-      </c>
-      <c r="C1" s="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="38"/>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="28">
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="17">
         <v>27562</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="28">
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="17">
         <v>45222</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="28">
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="17">
         <v>2375</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="12">
         <f>SUM(C3:C5)</f>
         <v>75159</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="23">
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="12">
         <v>14358</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="16">
         <f>C6-C7</f>
         <v>60801</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="28"/>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="28">
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="17">
         <v>34750</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="28">
+      <c r="B11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="17">
         <v>2500</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="28">
+      <c r="B12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="17">
         <v>478</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="28">
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="17">
         <v>415</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="28">
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="17">
         <v>525</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="12">
         <f>SUM(C10:C14)</f>
         <v>38668</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="32">
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="21">
         <f>C8-C15</f>
         <v>22133</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4605,15 +4554,13 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1ECC5E5-C4F3-4C20-9796-C4518AB26553}">
-  <sheetPr codeName="Sheet7">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A6B1C9-E981-4719-9FA1-0CAD1ACFB23D}">
+  <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="B1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4623,135 +4570,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="str">
+      <c r="B1" s="27" t="e">
         <f ca="1">MID(CELL("filename",B1),FIND("]",CELL("filename",B1))+1,50)</f>
-        <v>May</v>
-      </c>
-      <c r="C1" s="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="38"/>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="28">
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="17">
         <v>18021</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="28">
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="17">
         <v>27433</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="28">
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="17">
         <v>2345</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="12">
         <f>SUM(C3:C5)</f>
         <v>47799</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="23">
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="12">
         <v>35224</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="16">
         <f>C6-C7</f>
         <v>12575</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="28"/>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="28">
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="17">
         <v>34750</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="28">
+      <c r="B11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="17">
         <v>2500</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="28">
+      <c r="B12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="17">
         <v>478</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="28">
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="17">
         <v>415</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="28">
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="17">
         <v>525</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="12">
         <f>SUM(C10:C14)</f>
         <v>38668</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="32">
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="21">
         <f>C8-C15</f>
         <v>-26093</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4762,15 +4709,13 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7AC973-BB27-436F-9BDC-EE6B67A6C35E}">
-  <sheetPr codeName="Sheet8">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03154B73-EC8C-4057-9C90-931FEC4D4C48}">
+  <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="B1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4780,135 +4725,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="str">
+      <c r="B1" s="27" t="e">
         <f ca="1">MID(CELL("filename",B1),FIND("]",CELL("filename",B1))+1,50)</f>
-        <v>June</v>
-      </c>
-      <c r="C1" s="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="38"/>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="28">
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="17">
         <v>63509</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="28">
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="17">
         <v>60262</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="28">
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="17">
         <v>1355</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="12">
         <f>SUM(C3:C5)</f>
         <v>125126</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="23">
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="12">
         <v>24866</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="16">
         <f>C6-C7</f>
         <v>100260</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="28"/>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="28">
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="17">
         <v>34750</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="28">
+      <c r="B11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="17">
         <v>2500</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="28">
+      <c r="B12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="17">
         <v>478</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="28">
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="17">
         <v>415</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="28">
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="17">
         <v>525</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="12">
         <f>SUM(C10:C14)</f>
         <v>38668</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="32">
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="21">
         <f>C8-C15</f>
         <v>61592</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4919,15 +4864,13 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B223EA84-AF11-48A1-B04B-0B7874B7742B}">
-  <sheetPr codeName="Sheet9">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEB6CB4-0ECD-45B8-8DE9-7585460CFBE5}">
+  <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="B1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4937,144 +4880,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="str">
+      <c r="B1" s="27" t="e">
         <f ca="1">MID(CELL("filename",B1),FIND("]",CELL("filename",B1))+1,50)</f>
-        <v>Quarter2</v>
-      </c>
-      <c r="C1" s="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="38"/>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="28">
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="17">
         <f>April!C3+May!C3+June!C3</f>
         <v>109092</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="28">
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="17">
         <f>April!C4+May!C4+June!C4</f>
         <v>132917</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="28">
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="17">
         <f>April!C5+May!C5+June!C5</f>
         <v>6075</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="12">
         <f>SUM(C3:C5)</f>
         <v>248084</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="28">
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="17">
         <f>April!C7+May!C7+June!C7</f>
         <v>74448</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="16">
         <f>C6-C7</f>
         <v>173636</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="28"/>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="28">
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="17">
         <f>April!C10+May!C10+June!C10</f>
         <v>104250</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="28">
+      <c r="B11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="17">
         <f>April!C11+May!C11+June!C11</f>
         <v>7500</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="28">
+      <c r="B12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="17">
         <f>April!C12+May!C12+June!C12</f>
         <v>1434</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="28">
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="17">
         <f>April!C13+May!C13+June!C13</f>
         <v>1245</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="28">
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="17">
         <f>April!C14+May!C14+June!C14</f>
         <v>1575</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="12">
         <f>SUM(C10:C14)</f>
         <v>116004</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="32">
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="21">
         <f>C8-C15</f>
         <v>57632</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
